--- a/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-09-05.xlsx
+++ b/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-09-05.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1664,6 +1664,29 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sani-T-10 Sanitizer</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>107.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>107.36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
